--- a/材料清单及引脚标号.xlsx
+++ b/材料清单及引脚标号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="材料表" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>分类</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>名称</t>
   </si>
@@ -45,25 +42,31 @@
     <t>价格</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>stm32f407VET6</t>
-  </si>
-  <si>
-    <t>电容</t>
-  </si>
-  <si>
-    <t>线性稳压器</t>
-  </si>
-  <si>
-    <t>MPU9250</t>
-  </si>
-  <si>
-    <t>电机</t>
-  </si>
-  <si>
-    <t>舵机</t>
+    <t>stm32f103RCT6</t>
+  </si>
+  <si>
+    <t>42步进电机</t>
+  </si>
+  <si>
+    <t>减速器</t>
+  </si>
+  <si>
+    <t>树莓派</t>
+  </si>
+  <si>
+    <t>摄像头</t>
+  </si>
+  <si>
+    <t>直线丝杠装置</t>
+  </si>
+  <si>
+    <t>外壳使用cnc加工</t>
+  </si>
+  <si>
+    <t>气动夹爪</t>
+  </si>
+  <si>
+    <t>STM32F103RCT6</t>
   </si>
   <si>
     <t>引脚名</t>
@@ -72,9 +75,6 @@
     <t>功能</t>
   </si>
   <si>
-    <t>STM32F103C8T6</t>
-  </si>
-  <si>
     <t>驱动器</t>
   </si>
   <si>
@@ -84,28 +84,49 @@
     <t>TIM2_CH1</t>
   </si>
   <si>
-    <t>PUL</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>DIR</t>
-  </si>
-  <si>
-    <t>“+”正传“-”反转</t>
-  </si>
-  <si>
-    <t>PC1</t>
+    <t>四路PWM输出信号通道</t>
+  </si>
+  <si>
+    <t>PUL1</t>
+  </si>
+  <si>
+    <t>电机1</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>PUL2</t>
+  </si>
+  <si>
+    <t>电机2</t>
+  </si>
+  <si>
+    <t>PA2</t>
   </si>
   <si>
     <t>TIM2_CH3</t>
   </si>
   <si>
-    <t>ENA</t>
-  </si>
-  <si>
-    <t>始终+</t>
+    <t>PUL3</t>
+  </si>
+  <si>
+    <t>电机3</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>TIM2_CH4</t>
+  </si>
+  <si>
+    <t>PUL4</t>
+  </si>
+  <si>
+    <t>电机4</t>
   </si>
   <si>
     <t>PA9</t>
@@ -114,10 +135,88 @@
     <t>USART1_TX</t>
   </si>
   <si>
+    <t>串口1输出</t>
+  </si>
+  <si>
+    <t>GPIO15</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>串口1输入</t>
+  </si>
+  <si>
     <t>PA10</t>
   </si>
   <si>
     <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>GPIO14</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>调试数据段</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>调试时钟端</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>LSE_IN</t>
+  </si>
+  <si>
+    <t>低速时钟</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>LSE_OUT</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>HSE_IN</t>
+  </si>
+  <si>
+    <t>高速时钟</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>HSE_OUT</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>低电平点</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>高电平点</t>
   </si>
 </sst>
 </file>
@@ -130,10 +229,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +406,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,12 +597,41 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,138 +752,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1059,67 +1226,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="5" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1132,86 +1305,395 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F12"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" t="s">
+    <row r="1" ht="15" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4"/>
-      <c r="E4" t="s">
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="M4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="6:13">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="6:13">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="12:13">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/材料清单及引脚标号.xlsx
+++ b/材料清单及引脚标号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="22350" windowHeight="15240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="材料表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>名称</t>
   </si>
@@ -75,7 +75,10 @@
     <t>功能</t>
   </si>
   <si>
-    <t>驱动器</t>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>驱动板</t>
   </si>
   <si>
     <t>PA0</t>
@@ -87,46 +90,85 @@
     <t>四路PWM输出信号通道</t>
   </si>
   <si>
-    <t>PUL1</t>
-  </si>
-  <si>
-    <t>电机1</t>
-  </si>
-  <si>
     <t>PA1</t>
   </si>
   <si>
     <t>TIM2_CH2</t>
   </si>
   <si>
-    <t>PUL2</t>
-  </si>
-  <si>
-    <t>电机2</t>
-  </si>
-  <si>
     <t>PA2</t>
   </si>
   <si>
     <t>TIM2_CH3</t>
   </si>
   <si>
-    <t>PUL3</t>
-  </si>
-  <si>
-    <t>电机3</t>
-  </si>
-  <si>
     <t>PA3</t>
   </si>
   <si>
     <t>TIM2_CH4</t>
   </si>
   <si>
-    <t>PUL4</t>
-  </si>
-  <si>
-    <t>电机4</t>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>MOTOR1_AIN_1</t>
+  </si>
+  <si>
+    <t>MOTOR1DIR</t>
+  </si>
+  <si>
+    <t>接线端子</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>MOTOR1_AIN_2</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>MOTOR2_BIN_1</t>
+  </si>
+  <si>
+    <t>MOTOR2DIR</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>MOTOR2_BIN_2</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>MOTOR3_AIN_1</t>
+  </si>
+  <si>
+    <t>MOTOR3DIR</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>MOTOR3_AIN_2</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>MOTOR4_BIN_1</t>
+  </si>
+  <si>
+    <t>MOTOR4DIR</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>MOTOR4_BIN_2</t>
   </si>
   <si>
     <t>PA9</t>
@@ -183,9 +225,6 @@
     <t>LSE_IN</t>
   </si>
   <si>
-    <t>低速时钟</t>
-  </si>
-  <si>
     <t>PC15</t>
   </si>
   <si>
@@ -198,25 +237,46 @@
     <t>HSE_IN</t>
   </si>
   <si>
-    <t>高速时钟</t>
-  </si>
-  <si>
     <t>PD1</t>
   </si>
   <si>
     <t>HSE_OUT</t>
   </si>
   <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>高电平点</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>低电平点</t>
+  </si>
+  <si>
     <t>GND</t>
   </si>
   <si>
-    <t>低电平点</t>
-  </si>
-  <si>
-    <t>3.3V</t>
-  </si>
-  <si>
-    <t>高电平点</t>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>电池引脚</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>复位引脚</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>BOOT1</t>
   </si>
 </sst>
 </file>
@@ -229,25 +289,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -397,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,61 +451,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,41 +636,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -752,157 +762,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1228,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1240,26 +1235,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
@@ -1305,395 +1300,340 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="E1"/>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="3" t="s">
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="H14" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="I14" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="H15" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="6:13">
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="4" t="s">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="6:13">
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="12:13">
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/材料清单及引脚标号.xlsx
+++ b/材料清单及引脚标号.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
   <si>
     <t>名称</t>
   </si>
@@ -81,6 +81,9 @@
     <t>驱动板</t>
   </si>
   <si>
+    <t>电机</t>
+  </si>
+  <si>
     <t>PA0</t>
   </si>
   <si>
@@ -90,24 +93,39 @@
     <t>四路PWM输出信号通道</t>
   </si>
   <si>
+    <t>接线端子</t>
+  </si>
+  <si>
+    <t>TB1_PWMA</t>
+  </si>
+  <si>
     <t>PA1</t>
   </si>
   <si>
     <t>TIM2_CH2</t>
   </si>
   <si>
+    <t>TB1_PWMB</t>
+  </si>
+  <si>
     <t>PA2</t>
   </si>
   <si>
     <t>TIM2_CH3</t>
   </si>
   <si>
+    <t>TB2_PWMA</t>
+  </si>
+  <si>
     <t>PA3</t>
   </si>
   <si>
     <t>TIM2_CH4</t>
   </si>
   <si>
+    <t>TB2_PWMB</t>
+  </si>
+  <si>
     <t>PC10</t>
   </si>
   <si>
@@ -117,7 +135,7 @@
     <t>MOTOR1DIR</t>
   </si>
   <si>
-    <t>接线端子</t>
+    <t>TB1_AIN1</t>
   </si>
   <si>
     <t>PC11</t>
@@ -126,6 +144,9 @@
     <t>MOTOR1_AIN_2</t>
   </si>
   <si>
+    <t>TB1_AIN2</t>
+  </si>
+  <si>
     <t>PC12</t>
   </si>
   <si>
@@ -135,12 +156,18 @@
     <t>MOTOR2DIR</t>
   </si>
   <si>
+    <t>TB1_BIN1</t>
+  </si>
+  <si>
     <t>PD2</t>
   </si>
   <si>
     <t>MOTOR2_BIN_2</t>
   </si>
   <si>
+    <t>TB1_BIN2</t>
+  </si>
+  <si>
     <t>PB5</t>
   </si>
   <si>
@@ -150,12 +177,18 @@
     <t>MOTOR3DIR</t>
   </si>
   <si>
+    <t>TB2_AIN1</t>
+  </si>
+  <si>
     <t>PB6</t>
   </si>
   <si>
     <t>MOTOR3_AIN_2</t>
   </si>
   <si>
+    <t>TB2_AIN2</t>
+  </si>
+  <si>
     <t>PB7</t>
   </si>
   <si>
@@ -165,12 +198,18 @@
     <t>MOTOR4DIR</t>
   </si>
   <si>
+    <t>TB2_BIN1</t>
+  </si>
+  <si>
     <t>PB8</t>
   </si>
   <si>
     <t>MOTOR4_BIN_2</t>
   </si>
   <si>
+    <t>TB2_BIN2</t>
+  </si>
+  <si>
     <t>PA9</t>
   </si>
   <si>
@@ -201,6 +240,18 @@
     <t>TX</t>
   </si>
   <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>USB1_N</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>USB1_P</t>
+  </si>
+  <si>
     <t>PA13</t>
   </si>
   <si>
@@ -237,46 +288,106 @@
     <t>HSE_IN</t>
   </si>
   <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>高电平点</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>连接5V</t>
+  </si>
+  <si>
     <t>PD1</t>
   </si>
   <si>
     <t>HSE_OUT</t>
   </si>
   <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>低电平点</t>
+  </si>
+  <si>
     <t>VDD</t>
   </si>
   <si>
-    <t>高电平点</t>
-  </si>
-  <si>
-    <t>3.3V</t>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>连接12V</t>
   </si>
   <si>
     <t>VSS</t>
   </si>
   <si>
-    <t>低电平点</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
     <t>VBAT</t>
   </si>
   <si>
     <t>电池引脚</t>
   </si>
   <si>
+    <t>STBY</t>
+  </si>
+  <si>
+    <t>始终接高电平</t>
+  </si>
+  <si>
     <t>NRST</t>
   </si>
   <si>
     <t>复位引脚</t>
   </si>
   <si>
+    <t>TB1_AO1</t>
+  </si>
+  <si>
+    <t>MOTORA</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
     <t>BOOT0</t>
   </si>
   <si>
+    <t>启动</t>
+  </si>
+  <si>
+    <t>TB1_AO2</t>
+  </si>
+  <si>
     <t>BOOT1</t>
+  </si>
+  <si>
+    <t>TB1_BO1</t>
+  </si>
+  <si>
+    <t>MOTORB</t>
+  </si>
+  <si>
+    <t>TB1_BO2</t>
+  </si>
+  <si>
+    <t>TB2_AO1</t>
+  </si>
+  <si>
+    <t>MOTORC</t>
+  </si>
+  <si>
+    <t>TB2_AO2</t>
+  </si>
+  <si>
+    <t>TB2_BO1</t>
+  </si>
+  <si>
+    <t>MOTORD</t>
+  </si>
+  <si>
+    <t>TB2_BO2</t>
   </si>
 </sst>
 </file>
@@ -289,10 +400,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -636,11 +754,39 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -762,142 +908,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1235,26 +1393,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
@@ -1300,10 +1458,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1313,327 +1471,653 @@
     <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+      <c r="L1" s="2"/>
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" t="s">
+      <c r="L3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+      <c r="L5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="L6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="L7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="L8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="L9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
+      <c r="L10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" t="s">
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I14" t="s">
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
+      <c r="L11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H15" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
+      <c r="L12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="K13" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
+      <c r="L13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="H14" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+      <c r="I14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
+      <c r="H15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G22" t="s">
+      <c r="C17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" t="s">
+      <c r="D17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G23" t="s">
+      <c r="D18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C19" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
+      <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="K29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="11:14">
+      <c r="K30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="11:14">
+      <c r="K31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="11:14">
+      <c r="K32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="11:14">
+      <c r="K33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14">
+      <c r="K34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="N34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/材料清单及引脚标号.xlsx
+++ b/材料清单及引脚标号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22350" windowHeight="15240" activeTab="1"/>
+    <workbookView windowWidth="25590" windowHeight="15240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="材料表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="196">
+  <si>
+    <t>结构分类</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -39,31 +42,88 @@
     <t>数量</t>
   </si>
   <si>
-    <t>价格</t>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>核心处理器</t>
+  </si>
+  <si>
+    <t>树莓派</t>
+  </si>
+  <si>
+    <t>摄像头</t>
+  </si>
+  <si>
+    <t>控制器</t>
   </si>
   <si>
     <t>stm32f103RCT6</t>
   </si>
   <si>
-    <t>42步进电机</t>
+    <t>电机驱动器</t>
+  </si>
+  <si>
+    <t>DC电源插座</t>
+  </si>
+  <si>
+    <t>xh2.54-6pzz</t>
+  </si>
+  <si>
+    <t>连接电机</t>
+  </si>
+  <si>
+    <t>机械结构</t>
+  </si>
+  <si>
+    <t>步进电机</t>
+  </si>
+  <si>
+    <t>直线模组*1 底部旋转*1 大臂角和小臂角*2 机械爪抓取*1</t>
   </si>
   <si>
     <t>减速器</t>
   </si>
   <si>
-    <t>树莓派</t>
-  </si>
-  <si>
-    <t>摄像头</t>
+    <t>除直线模组和机械爪抓取部位</t>
+  </si>
+  <si>
+    <t>舵机</t>
+  </si>
+  <si>
+    <t>控制机械爪旋转自由度</t>
+  </si>
+  <si>
+    <t>联轴器</t>
   </si>
   <si>
     <t>直线丝杠装置</t>
   </si>
   <si>
-    <t>外壳使用cnc加工</t>
-  </si>
-  <si>
-    <t>气动夹爪</t>
+    <t>外壳</t>
+  </si>
+  <si>
+    <t>三指气动夹爪</t>
+  </si>
+  <si>
+    <t>柔性夹爪</t>
+  </si>
+  <si>
+    <t>电源适配器</t>
+  </si>
+  <si>
+    <t>220V转12V</t>
+  </si>
+  <si>
+    <t>备用电池</t>
+  </si>
+  <si>
+    <t>12V</t>
   </si>
   <si>
     <t>STM32F103RCT6</t>
@@ -84,13 +144,16 @@
     <t>电机</t>
   </si>
   <si>
+    <t>传送带/装配圆盘</t>
+  </si>
+  <si>
     <t>PA0</t>
   </si>
   <si>
     <t>TIM2_CH1</t>
   </si>
   <si>
-    <t>四路PWM输出信号通道</t>
+    <t>大臂步进电机</t>
   </si>
   <si>
     <t>接线端子</t>
@@ -105,6 +168,9 @@
     <t>TIM2_CH2</t>
   </si>
   <si>
+    <t>小臂步进电机</t>
+  </si>
+  <si>
     <t>TB1_PWMB</t>
   </si>
   <si>
@@ -114,6 +180,9 @@
     <t>TIM2_CH3</t>
   </si>
   <si>
+    <t>底部旋转步进电机</t>
+  </si>
+  <si>
     <t>TB2_PWMA</t>
   </si>
   <si>
@@ -123,9 +192,87 @@
     <t>TIM2_CH4</t>
   </si>
   <si>
+    <t>直线模组步进电机平移</t>
+  </si>
+  <si>
     <t>TB2_PWMB</t>
   </si>
   <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>机械爪步进电机夹取</t>
+  </si>
+  <si>
+    <t>TB3_PWMA</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>TIM3_CH2</t>
+  </si>
+  <si>
+    <t>连接舵机端</t>
+  </si>
+  <si>
+    <t>SERVO</t>
+  </si>
+  <si>
+    <t>机械爪旋转舵机</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>TIM3_CH3</t>
+  </si>
+  <si>
+    <t>连接装配圆盘PUL</t>
+  </si>
+  <si>
+    <t>PUL</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>TARANS</t>
+  </si>
+  <si>
+    <t>连接传送带启停端</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PLANT_DIR</t>
+  </si>
+  <si>
+    <t>连接装配圆盘DIR</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PLANT_EN</t>
+  </si>
+  <si>
+    <t>连接装配圆盘EN</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
     <t>PC10</t>
   </si>
   <si>
@@ -138,6 +285,12 @@
     <t>TB1_AIN1</t>
   </si>
   <si>
+    <t>MOTOR1</t>
+  </si>
+  <si>
+    <t>大臂电机</t>
+  </si>
+  <si>
     <t>PC11</t>
   </si>
   <si>
@@ -159,6 +312,12 @@
     <t>TB1_BIN1</t>
   </si>
   <si>
+    <t>MOTOR2</t>
+  </si>
+  <si>
+    <t>小臂电机</t>
+  </si>
+  <si>
     <t>PD2</t>
   </si>
   <si>
@@ -180,6 +339,12 @@
     <t>TB2_AIN1</t>
   </si>
   <si>
+    <t>MOTOR3</t>
+  </si>
+  <si>
+    <t>底部旋转电机</t>
+  </si>
+  <si>
     <t>PB6</t>
   </si>
   <si>
@@ -201,13 +366,64 @@
     <t>TB2_BIN1</t>
   </si>
   <si>
+    <t>MOTOR4</t>
+  </si>
+  <si>
+    <t>直线模组平移电机·</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>MOTOR4_BIN_2</t>
+  </si>
+  <si>
+    <t>TB2_BIN2</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>MOTOR5_AIN_1</t>
+  </si>
+  <si>
+    <t>MOTOR5DIR</t>
+  </si>
+  <si>
+    <t>TB3_AIN1</t>
+  </si>
+  <si>
+    <t>MOTOR5</t>
+  </si>
+  <si>
+    <t>机械爪夹取电机</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>MOTOR5_AIN_2</t>
+  </si>
+  <si>
+    <t>TB3_AIN2</t>
+  </si>
+  <si>
     <t>PB8</t>
   </si>
   <si>
-    <t>MOTOR4_BIN_2</t>
-  </si>
-  <si>
-    <t>TB2_BIN2</t>
+    <t>I2C1_SDA</t>
+  </si>
+  <si>
+    <t>显示屏</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+  </si>
+  <si>
+    <t>显示屏时钟端</t>
   </si>
   <si>
     <t>PA9</t>
@@ -240,6 +456,24 @@
     <t>TX</t>
   </si>
   <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>USART3_TX</t>
+  </si>
+  <si>
+    <t>串口3输出串口调试端</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+  </si>
+  <si>
+    <t>串口3输入</t>
+  </si>
+  <si>
     <t>PA11</t>
   </si>
   <si>
@@ -288,31 +522,40 @@
     <t>HSE_IN</t>
   </si>
   <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>HSE_OUT</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>高电平点</t>
+  </si>
+  <si>
     <t>3.3V</t>
   </si>
   <si>
-    <t>高电平点</t>
-  </si>
-  <si>
     <t>VCC</t>
   </si>
   <si>
     <t>连接5V</t>
   </si>
   <si>
-    <t>PD1</t>
-  </si>
-  <si>
-    <t>HSE_OUT</t>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>低电平点</t>
   </si>
   <si>
     <t>GND</t>
   </si>
   <si>
-    <t>低电平点</t>
-  </si>
-  <si>
-    <t>VDD</t>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>电池引脚</t>
   </si>
   <si>
     <t>VM</t>
@@ -321,13 +564,19 @@
     <t>连接12V</t>
   </si>
   <si>
-    <t>VSS</t>
-  </si>
-  <si>
-    <t>VBAT</t>
-  </si>
-  <si>
-    <t>电池引脚</t>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>复位引脚</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>启动</t>
   </si>
   <si>
     <t>STBY</t>
@@ -336,58 +585,37 @@
     <t>始终接高电平</t>
   </si>
   <si>
-    <t>NRST</t>
-  </si>
-  <si>
-    <t>复位引脚</t>
+    <t>BOOT1</t>
   </si>
   <si>
     <t>TB1_AO1</t>
   </si>
   <si>
-    <t>MOTORA</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>BOOT0</t>
-  </si>
-  <si>
-    <t>启动</t>
-  </si>
-  <si>
     <t>TB1_AO2</t>
   </si>
   <si>
-    <t>BOOT1</t>
-  </si>
-  <si>
     <t>TB1_BO1</t>
   </si>
   <si>
-    <t>MOTORB</t>
-  </si>
-  <si>
     <t>TB1_BO2</t>
   </si>
   <si>
     <t>TB2_AO1</t>
   </si>
   <si>
-    <t>MOTORC</t>
-  </si>
-  <si>
     <t>TB2_AO2</t>
   </si>
   <si>
     <t>TB2_BO1</t>
   </si>
   <si>
-    <t>MOTORD</t>
-  </si>
-  <si>
     <t>TB2_BO2</t>
+  </si>
+  <si>
+    <t>TB3_AO1</t>
+  </si>
+  <si>
+    <t>TB3_AO2</t>
   </si>
 </sst>
 </file>
@@ -1038,14 +1266,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1379,74 +1604,268 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="5" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="12.2083333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="9.78333333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.525" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="7" max="7" width="56.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1458,10 +1877,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1471,653 +1890,992 @@
     <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="9.875" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2"/>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="P8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>65</v>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>62</v>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="K23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>99</v>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14">
+      <c r="J42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="10:14">
+      <c r="J43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14">
+      <c r="J44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="10:14">
+      <c r="J45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="M45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="K29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="N29" s="2" t="s">
+    </row>
+    <row r="46" spans="10:14">
+      <c r="J46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="10:14">
+      <c r="J47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="M47" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="11:14">
-      <c r="K30" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="11:14">
-      <c r="K31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="11:14">
-      <c r="K32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="11:14">
-      <c r="K33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="11:14">
-      <c r="K34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="N34" s="2"/>
+    </row>
+    <row r="48" spans="10:14">
+      <c r="J48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="10:14">
+      <c r="J49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="M49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14">
+      <c r="J50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/材料清单及引脚标号.xlsx
+++ b/材料清单及引脚标号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="15240" activeTab="1"/>
+    <workbookView windowWidth="25590" windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="材料表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="188">
   <si>
     <t>结构分类</t>
   </si>
@@ -63,19 +63,13 @@
     <t>控制器</t>
   </si>
   <si>
-    <t>stm32f103RCT6</t>
-  </si>
-  <si>
-    <t>电机驱动器</t>
-  </si>
-  <si>
-    <t>DC电源插座</t>
-  </si>
-  <si>
-    <t>xh2.54-6pzz</t>
-  </si>
-  <si>
-    <t>连接电机</t>
+    <t>stm32f103RCT6最小系统板带屏幕</t>
+  </si>
+  <si>
+    <t>驱动板</t>
+  </si>
+  <si>
+    <t>PCB板20元，元器件51.88元</t>
   </si>
   <si>
     <t>机械结构</t>
@@ -87,18 +81,9 @@
     <t>直线模组*1 底部旋转*1 大臂角和小臂角*2 机械爪抓取*1</t>
   </si>
   <si>
-    <t>减速器</t>
-  </si>
-  <si>
-    <t>除直线模组和机械爪抓取部位</t>
-  </si>
-  <si>
     <t>舵机</t>
   </si>
   <si>
-    <t>控制机械爪旋转自由度</t>
-  </si>
-  <si>
     <t>联轴器</t>
   </si>
   <si>
@@ -108,10 +93,7 @@
     <t>外壳</t>
   </si>
   <si>
-    <t>三指气动夹爪</t>
-  </si>
-  <si>
-    <t>柔性夹爪</t>
+    <t>3D打印制作，亚克力板，铝型材</t>
   </si>
   <si>
     <t>电源适配器</t>
@@ -120,10 +102,7 @@
     <t>220V转12V</t>
   </si>
   <si>
-    <t>备用电池</t>
-  </si>
-  <si>
-    <t>12V</t>
+    <t>传动齿轮</t>
   </si>
   <si>
     <t>STM32F103RCT6</t>
@@ -136,9 +115,6 @@
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>驱动板</t>
   </si>
   <si>
     <t>电机</t>
@@ -788,12 +764,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1142,7 +1124,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,16 +1148,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1184,89 +1166,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,6 +1263,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1604,19 +1592,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.2083333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="29.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="9.78333333333333" customWidth="1"/>
     <col min="4" max="4" width="6.525" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="6.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="56.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1647,7 +1636,7 @@
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5"/>
@@ -1660,7 +1649,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5"/>
@@ -1688,9 +1677,15 @@
         <v>11</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>49.9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>49.9</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
@@ -1700,83 +1695,97 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>71.88</v>
+      </c>
+      <c r="F6" s="5">
+        <v>71.88</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
@@ -1785,88 +1794,22 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,8 +1822,8 @@
   <sheetPr/>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1903,60 +1846,60 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2"/>
       <c r="M2" s="2"/>
@@ -1967,19 +1910,19 @@
     <row r="3" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2"/>
       <c r="M3" s="2"/>
@@ -1990,19 +1933,19 @@
     <row r="4" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2"/>
       <c r="M4" s="2"/>
@@ -2013,19 +1956,19 @@
     <row r="5" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
@@ -2036,19 +1979,19 @@
     <row r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2"/>
       <c r="M6" s="2"/>
@@ -2059,13 +2002,13 @@
     <row r="7" spans="1:17">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2073,10 +2016,10 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -2084,13 +2027,13 @@
     <row r="8" spans="1:17">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2100,20 +2043,20 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2123,22 +2066,22 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2148,20 +2091,20 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2171,51 +2114,51 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
@@ -2224,44 +2167,44 @@
     <row r="14" spans="1:14">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K15" s="2"/>
       <c r="M15" s="2"/>
@@ -2270,44 +2213,44 @@
     <row r="16" spans="1:14">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K17" s="2"/>
       <c r="M17" s="2"/>
@@ -2316,44 +2259,44 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K19" s="2"/>
       <c r="M19" s="2"/>
@@ -2362,44 +2305,44 @@
     <row r="20" spans="1:14">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K20" s="2"/>
       <c r="M20" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K21" s="2"/>
       <c r="M21" s="2"/>
@@ -2408,13 +2351,13 @@
     <row r="22" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2427,13 +2370,13 @@
     <row r="23" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2446,22 +2389,22 @@
     <row r="24" spans="1:14">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2471,22 +2414,22 @@
     <row r="25" spans="1:14">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2496,13 +2439,13 @@
     <row r="26" spans="1:14">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2515,13 +2458,13 @@
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2534,10 +2477,10 @@
     <row r="28" spans="1:14">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D28" s="2"/>
       <c r="F28" s="2"/>
@@ -2551,10 +2494,10 @@
     <row r="29" spans="1:14">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D29" s="2"/>
       <c r="F29" s="2"/>
@@ -2568,13 +2511,13 @@
     <row r="30" spans="1:14">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2587,13 +2530,13 @@
     <row r="31" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2606,10 +2549,10 @@
     <row r="32" spans="1:14">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
@@ -2623,10 +2566,10 @@
     <row r="33" spans="1:14">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D33" s="2"/>
       <c r="F33" s="2"/>
@@ -2640,10 +2583,10 @@
     <row r="34" spans="1:14">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D34" s="2"/>
       <c r="F34" s="2"/>
@@ -2657,10 +2600,10 @@
     <row r="35" spans="1:14">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D35" s="2"/>
       <c r="F35" s="2"/>
@@ -2674,24 +2617,24 @@
     <row r="36" spans="1:14">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2699,21 +2642,21 @@
     <row r="37" spans="1:14">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K37" s="2"/>
       <c r="M37" s="2"/>
@@ -2722,17 +2665,17 @@
     <row r="38" spans="1:14">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2740,11 +2683,11 @@
     <row r="39" spans="1:14">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2754,19 +2697,19 @@
     <row r="40" spans="1:14">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2775,23 +2718,23 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="10:14">
       <c r="J42" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K42" s="2"/>
       <c r="M42" s="2"/>
@@ -2799,19 +2742,19 @@
     </row>
     <row r="43" spans="10:14">
       <c r="J43" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="10:14">
       <c r="J44" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K44" s="2"/>
       <c r="M44" s="2"/>
@@ -2819,19 +2762,19 @@
     </row>
     <row r="45" spans="10:14">
       <c r="J45" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="10:14">
       <c r="J46" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K46" s="2"/>
       <c r="M46" s="2"/>
@@ -2839,19 +2782,19 @@
     </row>
     <row r="47" spans="10:14">
       <c r="J47" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="10:14">
       <c r="J48" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K48" s="2"/>
       <c r="M48" s="2"/>
@@ -2859,19 +2802,19 @@
     </row>
     <row r="49" spans="10:14">
       <c r="J49" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K49" s="2"/>
       <c r="M49" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="10:14">
       <c r="J50" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K50" s="2"/>
       <c r="M50" s="2"/>
